--- a/data-raw/KULT5/KULT5_example.xlsx
+++ b/data-raw/KULT5/KULT5_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_markdown\open-music-europe-user-stories\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_markdown\open-music-europe-user-stories\data-raw\KULT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA5D0A3-DDF2-42A2-954C-82B4D8BE9623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B75830-172D-401F-9231-A7A93597DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{423AE524-EBC7-4288-BA47-250B62F9A2A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{423AE524-EBC7-4288-BA47-250B62F9A2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
   <si>
     <t>Musical ensemble / artistic ensemble</t>
   </si>
@@ -378,6 +378,24 @@
   </si>
   <si>
     <t>label_1_en</t>
+  </si>
+  <si>
+    <t>var_number_sk</t>
+  </si>
+  <si>
+    <t>var_number_en</t>
+  </si>
+  <si>
+    <t>checksum_en</t>
+  </si>
+  <si>
+    <t>checksum_sk</t>
+  </si>
+  <si>
+    <t>label_2_en</t>
+  </si>
+  <si>
+    <t>label_3_en</t>
   </si>
 </sst>
 </file>
@@ -824,105 +842,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -941,6 +860,105 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1261,9 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CBDDAE-B46F-4B3F-A3A5-FFA1CFAA061A}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:E62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1277,33 +1293,45 @@
       <c r="C1" t="s">
         <v>103</v>
       </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
       <c r="F1" t="s">
         <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -1312,26 +1340,26 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="5">
         <v>399</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="4">
         <v>2</v>
       </c>
@@ -1340,8 +1368,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1353,8 +1381,8 @@
       <c r="E4" s="5">
         <v>291</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="35" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1368,8 +1396,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1379,8 +1407,8 @@
       <c r="E5" s="5">
         <v>108</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1392,22 +1420,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>173</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="4">
         <v>5</v>
       </c>
@@ -1416,22 +1444,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="4">
         <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>572</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="4">
         <v>6</v>
       </c>
@@ -1884,8 +1912,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
@@ -1895,8 +1923,8 @@
       <c r="E26" s="5">
         <v>347</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1908,10 +1936,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="6" t="s">
         <v>82</v>
       </c>
@@ -1921,10 +1949,10 @@
       <c r="E27" s="5">
         <v>0</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1936,10 +1964,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
@@ -1949,10 +1977,10 @@
       <c r="E28" s="5">
         <v>9</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="34"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1964,8 +1992,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="6" t="s">
         <v>84</v>
       </c>
@@ -1975,8 +2003,8 @@
       <c r="E29" s="5">
         <v>0</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="6" t="s">
         <v>34</v>
       </c>
@@ -1988,8 +2016,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="6" t="s">
         <v>85</v>
       </c>
@@ -1999,8 +2027,8 @@
       <c r="E30" s="5">
         <v>7</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="6" t="s">
         <v>35</v>
       </c>
@@ -2012,8 +2040,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="6" t="s">
         <v>86</v>
       </c>
@@ -2023,8 +2051,8 @@
       <c r="E31" s="5">
         <v>128</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="6" t="s">
         <v>36</v>
       </c>
@@ -2036,22 +2064,22 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="4">
         <v>31</v>
       </c>
       <c r="E32" s="7">
         <v>79</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="4">
         <v>31</v>
       </c>
@@ -2060,10 +2088,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="41"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2073,10 +2101,10 @@
       <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2088,8 +2116,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="6" t="s">
         <v>89</v>
       </c>
@@ -2099,8 +2127,8 @@
       <c r="E34" s="5">
         <v>143</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="6" t="s">
         <v>39</v>
       </c>
@@ -2112,22 +2140,22 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="4">
         <v>34</v>
       </c>
       <c r="E35" s="7">
         <v>144</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="4">
         <v>34</v>
       </c>
@@ -2136,8 +2164,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="6" t="s">
         <v>10</v>
       </c>
@@ -2147,8 +2175,8 @@
       <c r="E36" s="5">
         <v>6</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="6" t="s">
         <v>10</v>
       </c>
@@ -2160,8 +2188,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="6" t="s">
         <v>61</v>
       </c>
@@ -2171,8 +2199,8 @@
       <c r="E37" s="5">
         <v>5</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="47"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="6" t="s">
         <v>11</v>
       </c>
@@ -2184,8 +2212,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="6" t="s">
         <v>62</v>
       </c>
@@ -2195,8 +2223,8 @@
       <c r="E38" s="5">
         <v>21</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="47"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="6" t="s">
         <v>12</v>
       </c>
@@ -2208,8 +2236,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="6" t="s">
         <v>63</v>
       </c>
@@ -2219,8 +2247,8 @@
       <c r="E39" s="5">
         <v>4</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="47"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2232,8 +2260,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="6" t="s">
         <v>64</v>
       </c>
@@ -2243,8 +2271,8 @@
       <c r="E40" s="5">
         <v>4</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="6" t="s">
         <v>14</v>
       </c>
@@ -2256,10 +2284,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="6" t="s">
         <v>65</v>
       </c>
@@ -2269,10 +2297,10 @@
       <c r="E41" s="5">
         <v>49</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="50"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="6" t="s">
         <v>15</v>
       </c>
@@ -2284,8 +2312,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="6" t="s">
         <v>66</v>
       </c>
@@ -2295,8 +2323,8 @@
       <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="6" t="s">
         <v>16</v>
       </c>
@@ -2308,8 +2336,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="6" t="s">
         <v>67</v>
       </c>
@@ -2319,8 +2347,8 @@
       <c r="E43" s="5">
         <v>24</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
       <c r="H43" s="6" t="s">
         <v>17</v>
       </c>
@@ -2332,8 +2360,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="6" t="s">
         <v>68</v>
       </c>
@@ -2343,8 +2371,8 @@
       <c r="E44" s="5">
         <v>31</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -2356,8 +2384,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="6" t="s">
         <v>69</v>
       </c>
@@ -2367,8 +2395,8 @@
       <c r="E45" s="5">
         <v>0</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="6" t="s">
         <v>19</v>
       </c>
@@ -2380,8 +2408,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>81</v>
       </c>
@@ -2391,8 +2419,8 @@
       <c r="E46" s="5">
         <v>108</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="6" t="s">
         <v>31</v>
       </c>
@@ -2404,10 +2432,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="6" t="s">
         <v>82</v>
       </c>
@@ -2417,10 +2445,10 @@
       <c r="E47" s="5">
         <v>0</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="34"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="6" t="s">
         <v>32</v>
       </c>
@@ -2432,10 +2460,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="6" t="s">
         <v>83</v>
       </c>
@@ -2445,10 +2473,10 @@
       <c r="E48" s="5">
         <v>0</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="34"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="6" t="s">
         <v>33</v>
       </c>
@@ -2460,8 +2488,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="6" t="s">
         <v>84</v>
       </c>
@@ -2471,8 +2499,8 @@
       <c r="E49" s="5">
         <v>0</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="6" t="s">
         <v>34</v>
       </c>
@@ -2484,8 +2512,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
@@ -2495,8 +2523,8 @@
       <c r="E50" s="5">
         <v>0</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="6" t="s">
         <v>35</v>
       </c>
@@ -2508,8 +2536,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="6" t="s">
         <v>86</v>
       </c>
@@ -2519,8 +2547,8 @@
       <c r="E51" s="5">
         <v>12</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="6" t="s">
         <v>36</v>
       </c>
@@ -2532,22 +2560,22 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="4">
         <v>51</v>
       </c>
       <c r="E52" s="7">
         <v>716</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="4">
         <v>51</v>
       </c>
@@ -2556,51 +2584,51 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="A53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="D54" s="52">
+      <c r="B54" s="39"/>
+      <c r="D54" s="19">
         <v>52</v>
       </c>
-      <c r="E54" s="53">
+      <c r="E54" s="20">
         <v>469</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="30"/>
-      <c r="I54" s="52">
+      <c r="G54" s="39"/>
+      <c r="I54" s="19">
         <v>52</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="20">
         <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="54">
+      <c r="D55" s="21">
         <v>53</v>
       </c>
       <c r="E55" s="5">
         <v>106</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I55" s="54">
+      <c r="I55" s="21">
         <v>53</v>
       </c>
       <c r="J55" s="5">
@@ -2608,21 +2636,21 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="54">
+      <c r="D56" s="21">
         <v>54</v>
       </c>
       <c r="E56" s="5">
         <v>363</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="54">
+      <c r="I56" s="21">
         <v>54</v>
       </c>
       <c r="J56" s="5">
@@ -2630,21 +2658,21 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="D57" s="54">
+      <c r="B57" s="39"/>
+      <c r="D57" s="21">
         <v>55</v>
       </c>
       <c r="E57" s="7">
         <v>37</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="30"/>
-      <c r="I57" s="54">
+      <c r="G57" s="39"/>
+      <c r="I57" s="21">
         <v>55</v>
       </c>
       <c r="J57" s="7">
@@ -2652,25 +2680,25 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="54">
+      <c r="D58" s="21">
         <v>56</v>
       </c>
       <c r="E58" s="5">
         <v>31</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I58" s="54">
+      <c r="I58" s="21">
         <v>56</v>
       </c>
       <c r="J58" s="5">
@@ -2678,21 +2706,21 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="54">
+      <c r="D59" s="21">
         <v>57</v>
       </c>
       <c r="E59" s="5">
         <v>6</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="32"/>
       <c r="G59" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I59" s="54">
+      <c r="I59" s="21">
         <v>57</v>
       </c>
       <c r="J59" s="5">
@@ -2700,21 +2728,21 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="D60" s="54">
+      <c r="B60" s="39"/>
+      <c r="D60" s="21">
         <v>58</v>
       </c>
       <c r="E60" s="7">
         <v>70</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="I60" s="54">
+      <c r="G60" s="39"/>
+      <c r="I60" s="21">
         <v>58</v>
       </c>
       <c r="J60" s="7">
@@ -2722,25 +2750,25 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="54">
+      <c r="D61" s="21">
         <v>59</v>
       </c>
       <c r="E61" s="5">
         <v>32</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I61" s="54">
+      <c r="I61" s="21">
         <v>59</v>
       </c>
       <c r="J61" s="5">
@@ -2749,34 +2777,29 @@
     </row>
     <row r="62" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="23">
         <v>60</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E62" s="24">
         <v>38</v>
       </c>
       <c r="F62" s="58"/>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I62" s="56">
+      <c r="I62" s="23">
         <v>60</v>
       </c>
-      <c r="J62" s="57">
+      <c r="J62" s="24">
         <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:G60"/>
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F48:G48"/>
@@ -2784,11 +2807,11 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:G60"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="F36:G36"/>
@@ -2796,6 +2819,11 @@
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
@@ -2824,11 +2852,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:B34"/>
@@ -2836,11 +2859,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:A6"/>
@@ -2848,6 +2871,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2857,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A852E7C-048A-453B-B4CC-7EB05D03D1F1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/data-raw/KULT5/KULT5_example.xlsx
+++ b/data-raw/KULT5/KULT5_example.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_markdown\open-music-europe-user-stories\data-raw\KULT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B75830-172D-401F-9231-A7A93597DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3A039-C3DB-4F0C-ACB4-9C6A6F22968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{423AE524-EBC7-4288-BA47-250B62F9A2A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{423AE524-EBC7-4288-BA47-250B62F9A2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" r:id="rId1"/>
     <sheet name="2008" sheetId="2" r:id="rId2"/>
+    <sheet name="2009" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="334">
   <si>
     <t>Musical ensemble / artistic ensemble</t>
   </si>
@@ -397,12 +398,777 @@
   <si>
     <t>label_3_en</t>
   </si>
+  <si>
+    <t>Concerts/performances of the reporting ensemble in Slovakia total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in that </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>on the domestic scene</t>
+  </si>
+  <si>
+    <t>on the non-domestic scene</t>
+  </si>
+  <si>
+    <r>
+      <t>Concerts of guest ensembles</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>from SR</t>
+  </si>
+  <si>
+    <t>from abroad</t>
+  </si>
+  <si>
+    <t>of which (from year 2) concerts/performances of the reporting ensemble in the Slovak Republic by genre</t>
+  </si>
+  <si>
+    <t>Concerts/performances for children and youth (from year 2)</t>
+  </si>
+  <si>
+    <t>Concerts/performances abroad total</t>
+  </si>
+  <si>
+    <t>by genre</t>
+  </si>
+  <si>
+    <t>Concerts/performances in the Slovak Republic and abroad total (line 2 + 14)</t>
+  </si>
+  <si>
+    <r>
+      <t>Total number of works in the repertoire of the ensemble</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>2. OFFERED PLACES AND VISITORS MODULE</t>
+  </si>
+  <si>
+    <t>l.r</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Concerts/performances</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">domestically </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of places offered</t>
+  </si>
+  <si>
+    <t>167 850</t>
+  </si>
+  <si>
+    <t>Number of visitors</t>
+  </si>
+  <si>
+    <t>127 253</t>
+  </si>
+  <si>
+    <t>of which</t>
+  </si>
+  <si>
+    <t>non-payers</t>
+  </si>
+  <si>
+    <t>3 819</t>
+  </si>
+  <si>
+    <t>Subscribers</t>
+  </si>
+  <si>
+    <t>6 648</t>
+  </si>
+  <si>
+    <t>outside the domestic scene</t>
+  </si>
+  <si>
+    <t>129 075</t>
+  </si>
+  <si>
+    <t>109 649</t>
+  </si>
+  <si>
+    <t>Concerts/performances in the country total</t>
+  </si>
+  <si>
+    <t>Number of places offered (yr 1 + 5)</t>
+  </si>
+  <si>
+    <t>299 175</t>
+  </si>
+  <si>
+    <t>Number of visitors (y. 2 + 6)</t>
+  </si>
+  <si>
+    <t>238 552</t>
+  </si>
+  <si>
+    <t>Concerts abroad</t>
+  </si>
+  <si>
+    <t>602 373</t>
+  </si>
+  <si>
+    <t>Total number of visitors at concerts / performances (y. 8 + 9)</t>
+  </si>
+  <si>
+    <t>840 925</t>
+  </si>
+  <si>
+    <t>3. STAFF AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>MODULE</t>
+  </si>
+  <si>
+    <t>of which women</t>
+  </si>
+  <si>
+    <t>Average number of employees on the register (recalculated)</t>
+  </si>
+  <si>
+    <t>of which professional and artistic staff</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Total revenue (income)</t>
+  </si>
+  <si>
+    <t>371 336 000</t>
+  </si>
+  <si>
+    <t>12 326 097</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>total activity contributions</t>
+  </si>
+  <si>
+    <t>287 861 000</t>
+  </si>
+  <si>
+    <t>9 555 235</t>
+  </si>
+  <si>
+    <t>from the state budget</t>
+  </si>
+  <si>
+    <t>282 017 000</t>
+  </si>
+  <si>
+    <t>9 361 249</t>
+  </si>
+  <si>
+    <t>from the budget of the self-governing region</t>
+  </si>
+  <si>
+    <t>200 000</t>
+  </si>
+  <si>
+    <t>6 639</t>
+  </si>
+  <si>
+    <t>from the budget of the municipality</t>
+  </si>
+  <si>
+    <t>470 000</t>
+  </si>
+  <si>
+    <t>15 601</t>
+  </si>
+  <si>
+    <t>grants and contributions from other bodies</t>
+  </si>
+  <si>
+    <t>1 891 000</t>
+  </si>
+  <si>
+    <t>62 770</t>
+  </si>
+  <si>
+    <t>donations, sponsorship, advertising</t>
+  </si>
+  <si>
+    <t>3 283 000</t>
+  </si>
+  <si>
+    <t>108 976</t>
+  </si>
+  <si>
+    <t>total sales</t>
+  </si>
+  <si>
+    <t>72 531 000</t>
+  </si>
+  <si>
+    <t>2 407 588</t>
+  </si>
+  <si>
+    <t>from the entrance fee</t>
+  </si>
+  <si>
+    <t>16 496 000</t>
+  </si>
+  <si>
+    <t>547 567</t>
+  </si>
+  <si>
+    <t>for concerts played</t>
+  </si>
+  <si>
+    <t>25 604 000</t>
+  </si>
+  <si>
+    <t>849 897</t>
+  </si>
+  <si>
+    <t>from rent</t>
+  </si>
+  <si>
+    <t>21 789</t>
+  </si>
+  <si>
+    <t>Total costs (expenditure)</t>
+  </si>
+  <si>
+    <t>393 566 000</t>
+  </si>
+  <si>
+    <t>13 063 998</t>
+  </si>
+  <si>
+    <t>total activity costs (expenditure)</t>
+  </si>
+  <si>
+    <t>327 846 000</t>
+  </si>
+  <si>
+    <t>10 882 494</t>
+  </si>
+  <si>
+    <t>labour costs</t>
+  </si>
+  <si>
+    <t>172 535 000</t>
+  </si>
+  <si>
+    <t>5 727 113</t>
+  </si>
+  <si>
+    <t>42 699</t>
+  </si>
+  <si>
+    <t>1 417</t>
+  </si>
+  <si>
+    <t>of which performance agreements</t>
+  </si>
+  <si>
+    <t>4 180 000</t>
+  </si>
+  <si>
+    <t>138 751</t>
+  </si>
+  <si>
+    <t>royalties</t>
+  </si>
+  <si>
+    <t>11 906 000</t>
+  </si>
+  <si>
+    <t>395 207</t>
+  </si>
+  <si>
+    <t>1 659</t>
+  </si>
+  <si>
+    <t>fees of guest artists and ensembles</t>
+  </si>
+  <si>
+    <t>34 962 000</t>
+  </si>
+  <si>
+    <t>1 160 526</t>
+  </si>
+  <si>
+    <t>operating and overhead costs</t>
+  </si>
+  <si>
+    <t>108 443 000</t>
+  </si>
+  <si>
+    <t>3 599 648</t>
+  </si>
+  <si>
+    <t>cost of services</t>
+  </si>
+  <si>
+    <t>43 041 000</t>
+  </si>
+  <si>
+    <t>1 428 699</t>
+  </si>
+  <si>
+    <t>for renting premises</t>
+  </si>
+  <si>
+    <t>2 057 000</t>
+  </si>
+  <si>
+    <t>68 280</t>
+  </si>
+  <si>
+    <t>for borrowing musical instruments</t>
+  </si>
+  <si>
+    <t>1 000</t>
+  </si>
+  <si>
+    <t>for the rental of equipment</t>
+  </si>
+  <si>
+    <t>21 000</t>
+  </si>
+  <si>
+    <t>Total capital expenditure</t>
+  </si>
+  <si>
+    <t>28 239 000</t>
+  </si>
+  <si>
+    <t>937 363</t>
+  </si>
+  <si>
+    <t>Koncerty / vystúpenia vykazujúceho telesa v SR spolu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v tom </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>na domácej scéne</t>
+  </si>
+  <si>
+    <t>na inej ako domácej scéne</t>
+  </si>
+  <si>
+    <r>
+      <t>Koncerty hosťujúcich telies</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>zo SR</t>
+  </si>
+  <si>
+    <t>zo zahraničia</t>
+  </si>
+  <si>
+    <t>v tom (z r. 2) koncerty / vystúpenia vykazujúceho telesa v SR podľa žánru</t>
+  </si>
+  <si>
+    <t>vážna hudba</t>
+  </si>
+  <si>
+    <t>populárna hudba</t>
+  </si>
+  <si>
+    <t>džez</t>
+  </si>
+  <si>
+    <t>dychová hudba</t>
+  </si>
+  <si>
+    <t>ľudová hudba</t>
+  </si>
+  <si>
+    <t>Koncerty / vystúpenia pre deti a mládež (z r. 2)</t>
+  </si>
+  <si>
+    <t>Koncerty / vystúpenia v zahraničí spolu</t>
+  </si>
+  <si>
+    <t>podľa žánru</t>
+  </si>
+  <si>
+    <t>Koncerty / vystúpenia v SR a zahraničí spolu (riadok 2 + 14)</t>
+  </si>
+  <si>
+    <r>
+      <t>Celkový počet diel v repertoári telesa</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>2. PONÚKANÉ MIESTA A NÁVŠTEVNÍCI MODUL</t>
+  </si>
+  <si>
+    <t>Spolu</t>
+  </si>
+  <si>
+    <t>Koncerty / vystúpenia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v tuzemsku </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Počet ponúknutých miest</t>
+  </si>
+  <si>
+    <t>Počet návštevníkov</t>
+  </si>
+  <si>
+    <t>z toho</t>
+  </si>
+  <si>
+    <t>neplatiacich</t>
+  </si>
+  <si>
+    <t>predplatiteľov</t>
+  </si>
+  <si>
+    <t>mimo domácej scény</t>
+  </si>
+  <si>
+    <t>Koncerty / vystúpenia v tuzemsku spolu</t>
+  </si>
+  <si>
+    <t>Počet ponúknutých miest (r. 1 + 5)</t>
+  </si>
+  <si>
+    <t>Počet návštevníkov (r. 2 + 6)</t>
+  </si>
+  <si>
+    <t>Koncerty v zahraničí</t>
+  </si>
+  <si>
+    <t>Počet návštevníkov na koncertoch / vystúpeniach spolu (r. 8 + 9)</t>
+  </si>
+  <si>
+    <t>3. ZAMESTNANCI A HOSPODÁRENIE</t>
+  </si>
+  <si>
+    <t>MODUL</t>
+  </si>
+  <si>
+    <t>z toho ženy</t>
+  </si>
+  <si>
+    <t>Priemerný evidenčný počet zamestnancov (prepočítaný)</t>
+  </si>
+  <si>
+    <t>z toho odborných a umeleckých zamestnancov</t>
+  </si>
+  <si>
+    <t>Sk</t>
+  </si>
+  <si>
+    <t>Výnosy (príjmy) spolu</t>
+  </si>
+  <si>
+    <t>príspevky na činnosť spolu</t>
+  </si>
+  <si>
+    <t>zo štátneho rozpočtu</t>
+  </si>
+  <si>
+    <t>z rozpočtu samosprávneho kraja</t>
+  </si>
+  <si>
+    <t>z rozpočtu obce</t>
+  </si>
+  <si>
+    <t>granty a príspevky od iných subjektov</t>
+  </si>
+  <si>
+    <t>dary, sponzoring, reklama</t>
+  </si>
+  <si>
+    <t>tržby spolu</t>
+  </si>
+  <si>
+    <t>zo vstupného</t>
+  </si>
+  <si>
+    <t>za odohrané koncerty</t>
+  </si>
+  <si>
+    <t>z prenájmu</t>
+  </si>
+  <si>
+    <t>Náklady (výdavky) spolu</t>
+  </si>
+  <si>
+    <t>náklady (výdavky) na činnosť spolu</t>
+  </si>
+  <si>
+    <t>mzdové náklady</t>
+  </si>
+  <si>
+    <t>z toho dohody o vykonaní práce</t>
+  </si>
+  <si>
+    <t>autorské honoráre</t>
+  </si>
+  <si>
+    <t>honoráre hosťujúcich umelcov a súborov</t>
+  </si>
+  <si>
+    <t>prevádzkové a režijné náklady</t>
+  </si>
+  <si>
+    <t>náklady za služby</t>
+  </si>
+  <si>
+    <t>za prenájom priestorov</t>
+  </si>
+  <si>
+    <t>za požčianie hudobných nástrojov</t>
+  </si>
+  <si>
+    <t>za prenájom aparatúry</t>
+  </si>
+  <si>
+    <t>Kapitálové výdavky spolu</t>
+  </si>
+  <si>
+    <t>label_4_sk</t>
+  </si>
+  <si>
+    <t>1. HUDOBNÉ TELESÁ A VÝKONY MODUL</t>
+  </si>
+  <si>
+    <t>125 258</t>
+  </si>
+  <si>
+    <t>95 968</t>
+  </si>
+  <si>
+    <t>5 624</t>
+  </si>
+  <si>
+    <t>6 573</t>
+  </si>
+  <si>
+    <t>144 987</t>
+  </si>
+  <si>
+    <t>132 022</t>
+  </si>
+  <si>
+    <t>270 245</t>
+  </si>
+  <si>
+    <t>227 990</t>
+  </si>
+  <si>
+    <t>74 673</t>
+  </si>
+  <si>
+    <t>302 663</t>
+  </si>
+  <si>
+    <t>Výnosy (príjmy) spolu (v EUR)</t>
+  </si>
+  <si>
+    <t>5 825 212</t>
+  </si>
+  <si>
+    <t>4 852 589</t>
+  </si>
+  <si>
+    <t>4 761 593</t>
+  </si>
+  <si>
+    <t>6 638</t>
+  </si>
+  <si>
+    <t>7 010</t>
+  </si>
+  <si>
+    <t>73 004</t>
+  </si>
+  <si>
+    <t>4 344</t>
+  </si>
+  <si>
+    <t>753 961</t>
+  </si>
+  <si>
+    <t>318 736</t>
+  </si>
+  <si>
+    <t>286 134</t>
+  </si>
+  <si>
+    <t>144 921</t>
+  </si>
+  <si>
+    <t>Náklady (výdavky) spolu (v EUR)</t>
+  </si>
+  <si>
+    <t>6 408 833</t>
+  </si>
+  <si>
+    <t>5 361 291</t>
+  </si>
+  <si>
+    <t>2 620 809</t>
+  </si>
+  <si>
+    <t>460 970</t>
+  </si>
+  <si>
+    <t>92 434</t>
+  </si>
+  <si>
+    <t>3 438</t>
+  </si>
+  <si>
+    <t>249 446</t>
+  </si>
+  <si>
+    <t>39 912</t>
+  </si>
+  <si>
+    <t>464 331</t>
+  </si>
+  <si>
+    <t>1 933 370</t>
+  </si>
+  <si>
+    <t>309 089</t>
+  </si>
+  <si>
+    <t>61 624</t>
+  </si>
+  <si>
+    <t>5 098</t>
+  </si>
+  <si>
+    <t>Kapitálové výdavky spolu (v EUR)</t>
+  </si>
+  <si>
+    <t>170 785</t>
+  </si>
+  <si>
+    <t>1. MUSIC ENSEMBLES AND PERFORMANCES MODULE</t>
+  </si>
+  <si>
+    <t>Total revenue (income) (in EUR)</t>
+  </si>
+  <si>
+    <t>Total costs (expenditure) (EUR)</t>
+  </si>
+  <si>
+    <t>Total capital expenditure (in EUR)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,8 +1238,118 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15.5"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +1368,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -785,11 +1673,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -861,12 +1839,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -876,15 +1929,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -897,71 +1944,413 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,6 +2367,898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Freeform 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E15288-13D9-635D-2832-97984131BC05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="19211925"/>
+          <a:ext cx="781050" cy="390525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="+- 0 1517 283"/>
+            <a:gd name="T1" fmla="*/ T0 w 1234"/>
+            <a:gd name="T2" fmla="+- 0 850 850"/>
+            <a:gd name="T3" fmla="*/ 850 h 615"/>
+            <a:gd name="T4" fmla="+- 0 1498 283"/>
+            <a:gd name="T5" fmla="*/ T4 w 1234"/>
+            <a:gd name="T6" fmla="+- 0 850 850"/>
+            <a:gd name="T7" fmla="*/ 850 h 615"/>
+            <a:gd name="T8" fmla="+- 0 1498 283"/>
+            <a:gd name="T9" fmla="*/ T8 w 1234"/>
+            <a:gd name="T10" fmla="+- 0 1445 850"/>
+            <a:gd name="T11" fmla="*/ 1445 h 615"/>
+            <a:gd name="T12" fmla="+- 0 283 283"/>
+            <a:gd name="T13" fmla="*/ T12 w 1234"/>
+            <a:gd name="T14" fmla="+- 0 1445 850"/>
+            <a:gd name="T15" fmla="*/ 1445 h 615"/>
+            <a:gd name="T16" fmla="+- 0 283 283"/>
+            <a:gd name="T17" fmla="*/ T16 w 1234"/>
+            <a:gd name="T18" fmla="+- 0 1464 850"/>
+            <a:gd name="T19" fmla="*/ 1464 h 615"/>
+            <a:gd name="T20" fmla="+- 0 1517 283"/>
+            <a:gd name="T21" fmla="*/ T20 w 1234"/>
+            <a:gd name="T22" fmla="+- 0 1464 850"/>
+            <a:gd name="T23" fmla="*/ 1464 h 615"/>
+            <a:gd name="T24" fmla="+- 0 1517 283"/>
+            <a:gd name="T25" fmla="*/ T24 w 1234"/>
+            <a:gd name="T26" fmla="+- 0 1445 850"/>
+            <a:gd name="T27" fmla="*/ 1445 h 615"/>
+            <a:gd name="T28" fmla="+- 0 1517 283"/>
+            <a:gd name="T29" fmla="*/ T28 w 1234"/>
+            <a:gd name="T30" fmla="+- 0 850 850"/>
+            <a:gd name="T31" fmla="*/ 850 h 615"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T1" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T5" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T9" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T13" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T17" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T21" y="T23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T25" y="T27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T29" y="T31"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1234" h="615">
+              <a:moveTo>
+                <a:pt x="1234" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1215" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1215" y="595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="614"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="614"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Freeform 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC612FE0-8B89-07EE-64B4-EE92546F94B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3409950" y="37157025"/>
+          <a:ext cx="561975" cy="295275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="+- 0 1445 564"/>
+            <a:gd name="T1" fmla="*/ T0 w 881"/>
+            <a:gd name="T2" fmla="+- 0 1416 1416"/>
+            <a:gd name="T3" fmla="*/ 1416 h 464"/>
+            <a:gd name="T4" fmla="+- 0 1428 564"/>
+            <a:gd name="T5" fmla="*/ T4 w 881"/>
+            <a:gd name="T6" fmla="+- 0 1416 1416"/>
+            <a:gd name="T7" fmla="*/ 1416 h 464"/>
+            <a:gd name="T8" fmla="+- 0 1428 564"/>
+            <a:gd name="T9" fmla="*/ T8 w 881"/>
+            <a:gd name="T10" fmla="+- 0 1862 1416"/>
+            <a:gd name="T11" fmla="*/ 1862 h 464"/>
+            <a:gd name="T12" fmla="+- 0 564 564"/>
+            <a:gd name="T13" fmla="*/ T12 w 881"/>
+            <a:gd name="T14" fmla="+- 0 1862 1416"/>
+            <a:gd name="T15" fmla="*/ 1862 h 464"/>
+            <a:gd name="T16" fmla="+- 0 564 564"/>
+            <a:gd name="T17" fmla="*/ T16 w 881"/>
+            <a:gd name="T18" fmla="+- 0 1879 1416"/>
+            <a:gd name="T19" fmla="*/ 1879 h 464"/>
+            <a:gd name="T20" fmla="+- 0 1445 564"/>
+            <a:gd name="T21" fmla="*/ T20 w 881"/>
+            <a:gd name="T22" fmla="+- 0 1879 1416"/>
+            <a:gd name="T23" fmla="*/ 1879 h 464"/>
+            <a:gd name="T24" fmla="+- 0 1445 564"/>
+            <a:gd name="T25" fmla="*/ T24 w 881"/>
+            <a:gd name="T26" fmla="+- 0 1862 1416"/>
+            <a:gd name="T27" fmla="*/ 1862 h 464"/>
+            <a:gd name="T28" fmla="+- 0 1445 564"/>
+            <a:gd name="T29" fmla="*/ T28 w 881"/>
+            <a:gd name="T30" fmla="+- 0 1416 1416"/>
+            <a:gd name="T31" fmla="*/ 1416 h 464"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T1" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T5" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T9" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T13" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T17" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T21" y="T23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T25" y="T27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T29" y="T31"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="881" h="464">
+              <a:moveTo>
+                <a:pt x="881" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="864" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="864" y="446"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="446"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="881" y="463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="881" y="446"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="881" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="Freeform 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3A899E-DAE1-7E9E-6996-DF66E02F75D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="19535775"/>
+          <a:ext cx="781050" cy="390525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="+- 0 1517 283"/>
+            <a:gd name="T1" fmla="*/ T0 w 1234"/>
+            <a:gd name="T2" fmla="+- 0 850 850"/>
+            <a:gd name="T3" fmla="*/ 850 h 615"/>
+            <a:gd name="T4" fmla="+- 0 1498 283"/>
+            <a:gd name="T5" fmla="*/ T4 w 1234"/>
+            <a:gd name="T6" fmla="+- 0 850 850"/>
+            <a:gd name="T7" fmla="*/ 850 h 615"/>
+            <a:gd name="T8" fmla="+- 0 1498 283"/>
+            <a:gd name="T9" fmla="*/ T8 w 1234"/>
+            <a:gd name="T10" fmla="+- 0 1445 850"/>
+            <a:gd name="T11" fmla="*/ 1445 h 615"/>
+            <a:gd name="T12" fmla="+- 0 283 283"/>
+            <a:gd name="T13" fmla="*/ T12 w 1234"/>
+            <a:gd name="T14" fmla="+- 0 1445 850"/>
+            <a:gd name="T15" fmla="*/ 1445 h 615"/>
+            <a:gd name="T16" fmla="+- 0 283 283"/>
+            <a:gd name="T17" fmla="*/ T16 w 1234"/>
+            <a:gd name="T18" fmla="+- 0 1464 850"/>
+            <a:gd name="T19" fmla="*/ 1464 h 615"/>
+            <a:gd name="T20" fmla="+- 0 1517 283"/>
+            <a:gd name="T21" fmla="*/ T20 w 1234"/>
+            <a:gd name="T22" fmla="+- 0 1464 850"/>
+            <a:gd name="T23" fmla="*/ 1464 h 615"/>
+            <a:gd name="T24" fmla="+- 0 1517 283"/>
+            <a:gd name="T25" fmla="*/ T24 w 1234"/>
+            <a:gd name="T26" fmla="+- 0 1445 850"/>
+            <a:gd name="T27" fmla="*/ 1445 h 615"/>
+            <a:gd name="T28" fmla="+- 0 1517 283"/>
+            <a:gd name="T29" fmla="*/ T28 w 1234"/>
+            <a:gd name="T30" fmla="+- 0 850 850"/>
+            <a:gd name="T31" fmla="*/ 850 h 615"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T1" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T5" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T9" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T13" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T17" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T21" y="T23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T25" y="T27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T29" y="T31"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1234" h="615">
+              <a:moveTo>
+                <a:pt x="1234" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1215" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1215" y="595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="614"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="614"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Freeform 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E32FC22-6E0F-E385-9E4F-E15E939BE4FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="37880925"/>
+          <a:ext cx="561975" cy="295275"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="+- 0 1445 564"/>
+            <a:gd name="T1" fmla="*/ T0 w 881"/>
+            <a:gd name="T2" fmla="+- 0 1416 1416"/>
+            <a:gd name="T3" fmla="*/ 1416 h 464"/>
+            <a:gd name="T4" fmla="+- 0 1428 564"/>
+            <a:gd name="T5" fmla="*/ T4 w 881"/>
+            <a:gd name="T6" fmla="+- 0 1416 1416"/>
+            <a:gd name="T7" fmla="*/ 1416 h 464"/>
+            <a:gd name="T8" fmla="+- 0 1428 564"/>
+            <a:gd name="T9" fmla="*/ T8 w 881"/>
+            <a:gd name="T10" fmla="+- 0 1862 1416"/>
+            <a:gd name="T11" fmla="*/ 1862 h 464"/>
+            <a:gd name="T12" fmla="+- 0 564 564"/>
+            <a:gd name="T13" fmla="*/ T12 w 881"/>
+            <a:gd name="T14" fmla="+- 0 1862 1416"/>
+            <a:gd name="T15" fmla="*/ 1862 h 464"/>
+            <a:gd name="T16" fmla="+- 0 564 564"/>
+            <a:gd name="T17" fmla="*/ T16 w 881"/>
+            <a:gd name="T18" fmla="+- 0 1879 1416"/>
+            <a:gd name="T19" fmla="*/ 1879 h 464"/>
+            <a:gd name="T20" fmla="+- 0 1445 564"/>
+            <a:gd name="T21" fmla="*/ T20 w 881"/>
+            <a:gd name="T22" fmla="+- 0 1879 1416"/>
+            <a:gd name="T23" fmla="*/ 1879 h 464"/>
+            <a:gd name="T24" fmla="+- 0 1445 564"/>
+            <a:gd name="T25" fmla="*/ T24 w 881"/>
+            <a:gd name="T26" fmla="+- 0 1862 1416"/>
+            <a:gd name="T27" fmla="*/ 1862 h 464"/>
+            <a:gd name="T28" fmla="+- 0 1445 564"/>
+            <a:gd name="T29" fmla="*/ T28 w 881"/>
+            <a:gd name="T30" fmla="+- 0 1416 1416"/>
+            <a:gd name="T31" fmla="*/ 1416 h 464"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T1" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T5" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T9" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T13" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T17" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T21" y="T23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T25" y="T27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T29" y="T31"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="881" h="464">
+              <a:moveTo>
+                <a:pt x="881" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="864" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="864" y="446"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="446"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="881" y="463"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="881" y="446"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="881" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="Freeform 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6964EE-5E86-7319-4E3C-192B6BE46C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="19097625"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="+- 0 1810 576"/>
+            <a:gd name="T1" fmla="*/ T0 w 1234"/>
+            <a:gd name="T2" fmla="+- 0 850 850"/>
+            <a:gd name="T3" fmla="*/ 850 h 593"/>
+            <a:gd name="T4" fmla="+- 0 1790 576"/>
+            <a:gd name="T5" fmla="*/ T4 w 1234"/>
+            <a:gd name="T6" fmla="+- 0 850 850"/>
+            <a:gd name="T7" fmla="*/ 850 h 593"/>
+            <a:gd name="T8" fmla="+- 0 1790 576"/>
+            <a:gd name="T9" fmla="*/ T8 w 1234"/>
+            <a:gd name="T10" fmla="+- 0 1423 850"/>
+            <a:gd name="T11" fmla="*/ 1423 h 593"/>
+            <a:gd name="T12" fmla="+- 0 576 576"/>
+            <a:gd name="T13" fmla="*/ T12 w 1234"/>
+            <a:gd name="T14" fmla="+- 0 1423 850"/>
+            <a:gd name="T15" fmla="*/ 1423 h 593"/>
+            <a:gd name="T16" fmla="+- 0 576 576"/>
+            <a:gd name="T17" fmla="*/ T16 w 1234"/>
+            <a:gd name="T18" fmla="+- 0 1442 850"/>
+            <a:gd name="T19" fmla="*/ 1442 h 593"/>
+            <a:gd name="T20" fmla="+- 0 1810 576"/>
+            <a:gd name="T21" fmla="*/ T20 w 1234"/>
+            <a:gd name="T22" fmla="+- 0 1442 850"/>
+            <a:gd name="T23" fmla="*/ 1442 h 593"/>
+            <a:gd name="T24" fmla="+- 0 1810 576"/>
+            <a:gd name="T25" fmla="*/ T24 w 1234"/>
+            <a:gd name="T26" fmla="+- 0 1423 850"/>
+            <a:gd name="T27" fmla="*/ 1423 h 593"/>
+            <a:gd name="T28" fmla="+- 0 1810 576"/>
+            <a:gd name="T29" fmla="*/ T28 w 1234"/>
+            <a:gd name="T30" fmla="+- 0 850 850"/>
+            <a:gd name="T31" fmla="*/ 850 h 593"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T1" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T5" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T9" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T13" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T17" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T21" y="T23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T25" y="T27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T29" y="T31"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1234" h="593">
+              <a:moveTo>
+                <a:pt x="1234" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1214" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1214" y="573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="592"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="592"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4100" name="Freeform 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405BFC9B-0A36-C4BB-898D-76B0ED9F7A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="20135850"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="+- 0 1810 576"/>
+            <a:gd name="T1" fmla="*/ T0 w 1234"/>
+            <a:gd name="T2" fmla="+- 0 850 850"/>
+            <a:gd name="T3" fmla="*/ 850 h 593"/>
+            <a:gd name="T4" fmla="+- 0 1790 576"/>
+            <a:gd name="T5" fmla="*/ T4 w 1234"/>
+            <a:gd name="T6" fmla="+- 0 850 850"/>
+            <a:gd name="T7" fmla="*/ 850 h 593"/>
+            <a:gd name="T8" fmla="+- 0 1790 576"/>
+            <a:gd name="T9" fmla="*/ T8 w 1234"/>
+            <a:gd name="T10" fmla="+- 0 1423 850"/>
+            <a:gd name="T11" fmla="*/ 1423 h 593"/>
+            <a:gd name="T12" fmla="+- 0 576 576"/>
+            <a:gd name="T13" fmla="*/ T12 w 1234"/>
+            <a:gd name="T14" fmla="+- 0 1423 850"/>
+            <a:gd name="T15" fmla="*/ 1423 h 593"/>
+            <a:gd name="T16" fmla="+- 0 576 576"/>
+            <a:gd name="T17" fmla="*/ T16 w 1234"/>
+            <a:gd name="T18" fmla="+- 0 1442 850"/>
+            <a:gd name="T19" fmla="*/ 1442 h 593"/>
+            <a:gd name="T20" fmla="+- 0 1810 576"/>
+            <a:gd name="T21" fmla="*/ T20 w 1234"/>
+            <a:gd name="T22" fmla="+- 0 1442 850"/>
+            <a:gd name="T23" fmla="*/ 1442 h 593"/>
+            <a:gd name="T24" fmla="+- 0 1810 576"/>
+            <a:gd name="T25" fmla="*/ T24 w 1234"/>
+            <a:gd name="T26" fmla="+- 0 1423 850"/>
+            <a:gd name="T27" fmla="*/ 1423 h 593"/>
+            <a:gd name="T28" fmla="+- 0 1810 576"/>
+            <a:gd name="T29" fmla="*/ T28 w 1234"/>
+            <a:gd name="T30" fmla="+- 0 850 850"/>
+            <a:gd name="T31" fmla="*/ 850 h 593"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T1" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T5" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T9" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T13" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T17" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T21" y="T23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T25" y="T27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T29" y="T31"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1234" h="593">
+              <a:moveTo>
+                <a:pt x="1234" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1214" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1214" y="573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="592"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="592"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="573"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1234" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1279,9 +3560,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CBDDAE-B46F-4B3F-A3A5-FFA1CFAA061A}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1316,22 +3604,22 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -1340,26 +3628,26 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="5">
         <v>399</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="4">
         <v>2</v>
       </c>
@@ -1368,8 +3656,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="58" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1381,8 +3669,8 @@
       <c r="E4" s="5">
         <v>291</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="58" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1396,8 +3684,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1407,8 +3695,8 @@
       <c r="E5" s="5">
         <v>108</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1420,22 +3708,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>173</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="4">
         <v>5</v>
       </c>
@@ -1444,22 +3732,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="4">
         <v>6</v>
       </c>
       <c r="E7" s="7">
         <v>572</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="4">
         <v>6</v>
       </c>
@@ -1912,8 +4200,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
@@ -1923,8 +4211,8 @@
       <c r="E26" s="5">
         <v>347</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1936,10 +4224,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="6" t="s">
         <v>82</v>
       </c>
@@ -1949,10 +4237,10 @@
       <c r="E27" s="5">
         <v>0</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="6" t="s">
         <v>32</v>
       </c>
@@ -1964,10 +4252,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="6" t="s">
         <v>83</v>
       </c>
@@ -1977,10 +4265,10 @@
       <c r="E28" s="5">
         <v>9</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="43"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="6" t="s">
         <v>33</v>
       </c>
@@ -1992,8 +4280,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>84</v>
       </c>
@@ -2003,8 +4291,8 @@
       <c r="E29" s="5">
         <v>0</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="6" t="s">
         <v>34</v>
       </c>
@@ -2016,8 +4304,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6" t="s">
         <v>85</v>
       </c>
@@ -2027,8 +4315,8 @@
       <c r="E30" s="5">
         <v>7</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="6" t="s">
         <v>35</v>
       </c>
@@ -2040,8 +4328,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="6" t="s">
         <v>86</v>
       </c>
@@ -2051,8 +4339,8 @@
       <c r="E31" s="5">
         <v>128</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="6" t="s">
         <v>36</v>
       </c>
@@ -2064,22 +4352,22 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="4">
         <v>31</v>
       </c>
       <c r="E32" s="7">
         <v>79</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="4">
         <v>31</v>
       </c>
@@ -2088,10 +4376,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2101,10 +4389,10 @@
       <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2116,8 +4404,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="6" t="s">
         <v>89</v>
       </c>
@@ -2127,8 +4415,8 @@
       <c r="E34" s="5">
         <v>143</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="6" t="s">
         <v>39</v>
       </c>
@@ -2140,22 +4428,22 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="4">
         <v>34</v>
       </c>
       <c r="E35" s="7">
         <v>144</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="4">
         <v>34</v>
       </c>
@@ -2164,8 +4452,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="6" t="s">
         <v>10</v>
       </c>
@@ -2175,8 +4463,8 @@
       <c r="E36" s="5">
         <v>6</v>
       </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="6" t="s">
         <v>10</v>
       </c>
@@ -2188,8 +4476,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="6" t="s">
         <v>61</v>
       </c>
@@ -2199,8 +4487,8 @@
       <c r="E37" s="5">
         <v>5</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="6" t="s">
         <v>11</v>
       </c>
@@ -2212,8 +4500,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="6" t="s">
         <v>62</v>
       </c>
@@ -2223,8 +4511,8 @@
       <c r="E38" s="5">
         <v>21</v>
       </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="6" t="s">
         <v>12</v>
       </c>
@@ -2236,8 +4524,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="6" t="s">
         <v>63</v>
       </c>
@@ -2247,8 +4535,8 @@
       <c r="E39" s="5">
         <v>4</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2260,8 +4548,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="6" t="s">
         <v>64</v>
       </c>
@@ -2271,8 +4559,8 @@
       <c r="E40" s="5">
         <v>4</v>
       </c>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="6" t="s">
         <v>14</v>
       </c>
@@ -2284,10 +4572,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="6" t="s">
         <v>65</v>
       </c>
@@ -2297,10 +4585,10 @@
       <c r="E41" s="5">
         <v>49</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="57"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="6" t="s">
         <v>15</v>
       </c>
@@ -2312,8 +4600,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="6" t="s">
         <v>66</v>
       </c>
@@ -2323,8 +4611,8 @@
       <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="6" t="s">
         <v>16</v>
       </c>
@@ -2336,8 +4624,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="6" t="s">
         <v>67</v>
       </c>
@@ -2347,8 +4635,8 @@
       <c r="E43" s="5">
         <v>24</v>
       </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
       <c r="H43" s="6" t="s">
         <v>17</v>
       </c>
@@ -2360,8 +4648,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6" t="s">
         <v>68</v>
       </c>
@@ -2371,8 +4659,8 @@
       <c r="E44" s="5">
         <v>31</v>
       </c>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
       <c r="H44" s="6" t="s">
         <v>18</v>
       </c>
@@ -2384,8 +4672,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6" t="s">
         <v>69</v>
       </c>
@@ -2395,8 +4683,8 @@
       <c r="E45" s="5">
         <v>0</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="6" t="s">
         <v>19</v>
       </c>
@@ -2408,8 +4696,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
         <v>81</v>
       </c>
@@ -2419,8 +4707,8 @@
       <c r="E46" s="5">
         <v>108</v>
       </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="6" t="s">
         <v>31</v>
       </c>
@@ -2432,10 +4720,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="43"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="6" t="s">
         <v>82</v>
       </c>
@@ -2445,10 +4733,10 @@
       <c r="E47" s="5">
         <v>0</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="43"/>
+      <c r="G47" s="29"/>
       <c r="H47" s="6" t="s">
         <v>32</v>
       </c>
@@ -2460,10 +4748,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="43"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="6" t="s">
         <v>83</v>
       </c>
@@ -2473,10 +4761,10 @@
       <c r="E48" s="5">
         <v>0</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="43"/>
+      <c r="G48" s="29"/>
       <c r="H48" s="6" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +4776,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="6" t="s">
         <v>84</v>
       </c>
@@ -2499,8 +4787,8 @@
       <c r="E49" s="5">
         <v>0</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="6" t="s">
         <v>34</v>
       </c>
@@ -2512,8 +4800,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="6" t="s">
         <v>85</v>
       </c>
@@ -2523,8 +4811,8 @@
       <c r="E50" s="5">
         <v>0</v>
       </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
       <c r="H50" s="6" t="s">
         <v>35</v>
       </c>
@@ -2536,8 +4824,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="6" t="s">
         <v>86</v>
       </c>
@@ -2547,8 +4835,8 @@
       <c r="E51" s="5">
         <v>12</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
       <c r="H51" s="6" t="s">
         <v>36</v>
       </c>
@@ -2560,22 +4848,22 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="4">
         <v>51</v>
       </c>
       <c r="E52" s="7">
         <v>716</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="F52" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="4">
         <v>51</v>
       </c>
@@ -2588,20 +4876,20 @@
       <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="39"/>
+      <c r="B54" s="36"/>
       <c r="D54" s="19">
         <v>52</v>
       </c>
       <c r="E54" s="20">
         <v>469</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="39"/>
+      <c r="G54" s="36"/>
       <c r="I54" s="19">
         <v>52</v>
       </c>
@@ -2610,7 +4898,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2622,7 +4910,7 @@
       <c r="E55" s="5">
         <v>106</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="F55" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -2636,7 +4924,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="6" t="s">
         <v>96</v>
       </c>
@@ -2646,7 +4934,7 @@
       <c r="E56" s="5">
         <v>363</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="6" t="s">
         <v>46</v>
       </c>
@@ -2658,20 +4946,20 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="39"/>
+      <c r="B57" s="36"/>
       <c r="D57" s="21">
         <v>55</v>
       </c>
       <c r="E57" s="7">
         <v>37</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="39"/>
+      <c r="G57" s="36"/>
       <c r="I57" s="21">
         <v>55</v>
       </c>
@@ -2680,7 +4968,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2692,7 +4980,7 @@
       <c r="E58" s="5">
         <v>31</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -2706,7 +4994,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="6" t="s">
         <v>96</v>
       </c>
@@ -2716,7 +5004,7 @@
       <c r="E59" s="5">
         <v>6</v>
       </c>
-      <c r="F59" s="32"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="6" t="s">
         <v>46</v>
       </c>
@@ -2728,20 +5016,20 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="39"/>
+      <c r="B60" s="36"/>
       <c r="D60" s="21">
         <v>58</v>
       </c>
       <c r="E60" s="7">
         <v>70</v>
       </c>
-      <c r="F60" s="37" t="s">
+      <c r="F60" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="39"/>
+      <c r="G60" s="36"/>
       <c r="I60" s="21">
         <v>58</v>
       </c>
@@ -2750,7 +5038,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -2762,7 +5050,7 @@
       <c r="E61" s="5">
         <v>32</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -2776,7 +5064,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="22" t="s">
         <v>100</v>
       </c>
@@ -2786,7 +5074,7 @@
       <c r="E62" s="24">
         <v>38</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="27"/>
       <c r="G62" s="22" t="s">
         <v>50</v>
       </c>
@@ -2800,35 +5088,37 @@
     <row r="63" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="F33:G34"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:A62"/>
@@ -2845,37 +5135,35 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:G60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2883,12 +5171,4448 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A852E7C-048A-453B-B4CC-7EB05D03D1F1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="113"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="113"/>
+      <c r="F2" s="61">
+        <v>1</v>
+      </c>
+      <c r="G2" s="62">
+        <v>14</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="113"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="67"/>
+      <c r="F3" s="63">
+        <v>2</v>
+      </c>
+      <c r="G3" s="64">
+        <v>566</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="113"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="64">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="67"/>
+      <c r="F4" s="63">
+        <v>3</v>
+      </c>
+      <c r="G4" s="68">
+        <v>366</v>
+      </c>
+      <c r="M4" s="65"/>
+      <c r="N4" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="119"/>
+      <c r="P4" s="63">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="68">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="67"/>
+      <c r="F5" s="63">
+        <v>4</v>
+      </c>
+      <c r="G5" s="68">
+        <v>200</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="119"/>
+      <c r="P5" s="63">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="67"/>
+      <c r="F6" s="63">
+        <v>5</v>
+      </c>
+      <c r="G6" s="68">
+        <v>54</v>
+      </c>
+      <c r="M6" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="119"/>
+      <c r="P6" s="63">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="68">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="121"/>
+      <c r="B7" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="67"/>
+      <c r="F7" s="63">
+        <v>6</v>
+      </c>
+      <c r="G7" s="68">
+        <v>31</v>
+      </c>
+      <c r="M7" s="121"/>
+      <c r="N7" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="119"/>
+      <c r="P7" s="63">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="68">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="67"/>
+      <c r="F8" s="63">
+        <v>7</v>
+      </c>
+      <c r="G8" s="68">
+        <v>413</v>
+      </c>
+      <c r="M8" s="69"/>
+      <c r="N8" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="119"/>
+      <c r="P8" s="63">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="67"/>
+      <c r="F9" s="63">
+        <v>8</v>
+      </c>
+      <c r="G9" s="68">
+        <v>4</v>
+      </c>
+      <c r="M9" s="65"/>
+      <c r="N9" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="119"/>
+      <c r="P9" s="63">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="67"/>
+      <c r="F10" s="63">
+        <v>9</v>
+      </c>
+      <c r="G10" s="68">
+        <v>9</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="119"/>
+      <c r="P10" s="63">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="71"/>
+      <c r="B11" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="67"/>
+      <c r="F11" s="63">
+        <v>10</v>
+      </c>
+      <c r="G11" s="68">
+        <v>1</v>
+      </c>
+      <c r="M11" s="71"/>
+      <c r="N11" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="119"/>
+      <c r="P11" s="63">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="71"/>
+      <c r="B12" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="67"/>
+      <c r="F12" s="63">
+        <v>11</v>
+      </c>
+      <c r="G12" s="68">
+        <v>9</v>
+      </c>
+      <c r="M12" s="71"/>
+      <c r="N12" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="119"/>
+      <c r="P12" s="63">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="67"/>
+      <c r="F13" s="63">
+        <v>12</v>
+      </c>
+      <c r="G13" s="68">
+        <v>130</v>
+      </c>
+      <c r="M13" s="72"/>
+      <c r="N13" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="119"/>
+      <c r="P13" s="63">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="67"/>
+      <c r="F14" s="63">
+        <v>13</v>
+      </c>
+      <c r="G14" s="68">
+        <v>121</v>
+      </c>
+      <c r="M14" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="113"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="63">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="67"/>
+      <c r="F15" s="63">
+        <v>14</v>
+      </c>
+      <c r="G15" s="64">
+        <v>249</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="113"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="63">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="64">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="122"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="F16" s="63">
+        <v>15</v>
+      </c>
+      <c r="G16" s="68">
+        <v>208</v>
+      </c>
+      <c r="M16" s="122"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="63">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="F17" s="63">
+        <v>16</v>
+      </c>
+      <c r="G17" s="68">
+        <v>0</v>
+      </c>
+      <c r="M17" s="73"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="63">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="F18" s="63">
+        <v>17</v>
+      </c>
+      <c r="G18" s="68">
+        <v>0</v>
+      </c>
+      <c r="M18" s="74"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="63">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="126"/>
+      <c r="C19" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="F19" s="63">
+        <v>18</v>
+      </c>
+      <c r="G19" s="68">
+        <v>0</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="126"/>
+      <c r="O19" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="63">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="127"/>
+      <c r="C20" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="F20" s="63">
+        <v>19</v>
+      </c>
+      <c r="G20" s="68">
+        <v>1</v>
+      </c>
+      <c r="M20" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="127"/>
+      <c r="O20" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="63">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="F21" s="63">
+        <v>20</v>
+      </c>
+      <c r="G21" s="68">
+        <v>40</v>
+      </c>
+      <c r="M21" s="77"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="63">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="67"/>
+      <c r="F22" s="63">
+        <v>21</v>
+      </c>
+      <c r="G22" s="64">
+        <v>815</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="113"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="63">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="64">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="113"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="67"/>
+      <c r="F23" s="63">
+        <v>22</v>
+      </c>
+      <c r="G23" s="64">
+        <v>326</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="113"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="63">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="64">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="122"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="F24" s="63">
+        <v>23</v>
+      </c>
+      <c r="G24" s="68">
+        <v>125</v>
+      </c>
+      <c r="M24" s="122"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="63">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="82"/>
+      <c r="C25" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="F25" s="63">
+        <v>24</v>
+      </c>
+      <c r="G25" s="68">
+        <v>201</v>
+      </c>
+      <c r="M25" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="82"/>
+      <c r="O25" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="63">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="68">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="113"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="67"/>
+      <c r="F26" s="63">
+        <v>25</v>
+      </c>
+      <c r="G26" s="64">
+        <v>33</v>
+      </c>
+      <c r="M26" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="113"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="63">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="64">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="122"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="F27" s="63">
+        <v>26</v>
+      </c>
+      <c r="G27" s="68">
+        <v>29</v>
+      </c>
+      <c r="M27" s="122"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="63">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="68">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="82"/>
+      <c r="C28" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="F28" s="63">
+        <v>27</v>
+      </c>
+      <c r="G28" s="68">
+        <v>4</v>
+      </c>
+      <c r="M28" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="82"/>
+      <c r="O28" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="63">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="67"/>
+      <c r="F29" s="63">
+        <v>28</v>
+      </c>
+      <c r="G29" s="64">
+        <v>143</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="113"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="63">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="64">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="122"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="F30" s="63">
+        <v>29</v>
+      </c>
+      <c r="G30" s="68">
+        <v>128</v>
+      </c>
+      <c r="M30" s="122"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="63">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="82"/>
+      <c r="C31" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="F31" s="63">
+        <v>30</v>
+      </c>
+      <c r="G31" s="68">
+        <v>15</v>
+      </c>
+      <c r="M31" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="82"/>
+      <c r="O31" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="63">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="M32" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="R33" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="83">
+        <v>1</v>
+      </c>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="R34" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="84"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="113"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="63">
+        <v>1</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" s="84"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="63">
+        <v>1</v>
+      </c>
+      <c r="R35" s="68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="84"/>
+      <c r="B36" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="113"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="63">
+        <v>2</v>
+      </c>
+      <c r="G36" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="M36" s="84"/>
+      <c r="N36" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="63">
+        <v>2</v>
+      </c>
+      <c r="R36" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="63">
+        <v>3</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="M37" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" s="15"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37" s="63">
+        <v>3</v>
+      </c>
+      <c r="R37" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="63">
+        <v>4</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="16"/>
+      <c r="O38" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" s="63">
+        <v>4</v>
+      </c>
+      <c r="R38" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="71"/>
+      <c r="B39" s="131" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="113"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="63">
+        <v>5</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="M39" s="71"/>
+      <c r="N39" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="63">
+        <v>5</v>
+      </c>
+      <c r="R39" s="68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="72"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="113"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="63">
+        <v>6</v>
+      </c>
+      <c r="G40" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" s="72"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="63">
+        <v>6</v>
+      </c>
+      <c r="R40" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="134"/>
+      <c r="C41" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="113"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="63">
+        <v>7</v>
+      </c>
+      <c r="G41" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="M41" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41" s="134"/>
+      <c r="O41" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="63">
+        <v>7</v>
+      </c>
+      <c r="R41" s="64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="135"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="113"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="63">
+        <v>8</v>
+      </c>
+      <c r="G42" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="M42" s="135"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="63">
+        <v>8</v>
+      </c>
+      <c r="R42" s="64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="138"/>
+      <c r="C43" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="113"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="63">
+        <v>9</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="M43" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="N43" s="138"/>
+      <c r="O43" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="63">
+        <v>9</v>
+      </c>
+      <c r="R43" s="68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="63">
+        <v>10</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="140"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="141"/>
+      <c r="Q44" s="63">
+        <v>10</v>
+      </c>
+      <c r="R44" s="64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="90"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="F45" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="142" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45" s="92"/>
+      <c r="I45" s="143" t="s">
+        <v>263</v>
+      </c>
+      <c r="J45" s="144"/>
+      <c r="M45" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="N45" s="90"/>
+      <c r="O45" s="114"/>
+      <c r="Q45" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="R45" s="142" t="s">
+        <v>126</v>
+      </c>
+      <c r="S45" s="92"/>
+      <c r="T45" s="143" t="s">
+        <v>153</v>
+      </c>
+      <c r="U45" s="144"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="F46" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="145">
+        <v>1</v>
+      </c>
+      <c r="H46" s="146"/>
+      <c r="I46" s="145">
+        <v>2</v>
+      </c>
+      <c r="J46" s="146"/>
+      <c r="M46" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="N46" s="91"/>
+      <c r="O46" s="115"/>
+      <c r="Q46" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="R46" s="145">
+        <v>1</v>
+      </c>
+      <c r="S46" s="146"/>
+      <c r="T46" s="145">
+        <v>2</v>
+      </c>
+      <c r="U46" s="146"/>
+    </row>
+    <row r="47" spans="1:21" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="147" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="148"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="103"/>
+      <c r="F47" s="95">
+        <v>1</v>
+      </c>
+      <c r="G47" s="150">
+        <v>755</v>
+      </c>
+      <c r="H47" s="151"/>
+      <c r="I47" s="152">
+        <v>296</v>
+      </c>
+      <c r="J47" s="153"/>
+      <c r="M47" s="147" t="s">
+        <v>154</v>
+      </c>
+      <c r="N47" s="148"/>
+      <c r="O47" s="149"/>
+      <c r="Q47" s="95">
+        <v>1</v>
+      </c>
+      <c r="R47" s="150">
+        <v>755</v>
+      </c>
+      <c r="S47" s="151"/>
+      <c r="T47" s="152">
+        <v>296</v>
+      </c>
+      <c r="U47" s="153"/>
+    </row>
+    <row r="48" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="143" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="93"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="116"/>
+      <c r="F48" s="95">
+        <v>2</v>
+      </c>
+      <c r="G48" s="154">
+        <v>612</v>
+      </c>
+      <c r="H48" s="92"/>
+      <c r="I48" s="142">
+        <v>208</v>
+      </c>
+      <c r="J48" s="155"/>
+      <c r="M48" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="N48" s="93"/>
+      <c r="O48" s="144"/>
+      <c r="Q48" s="95">
+        <v>2</v>
+      </c>
+      <c r="R48" s="154">
+        <v>612</v>
+      </c>
+      <c r="S48" s="92"/>
+      <c r="T48" s="142">
+        <v>208</v>
+      </c>
+      <c r="U48" s="155"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="156"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="117"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="M49" s="156"/>
+      <c r="N49" s="157"/>
+      <c r="O49" s="158"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="S49" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="T49" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="U49" s="98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="147" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="148"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="103"/>
+      <c r="F50" s="95">
+        <v>3</v>
+      </c>
+      <c r="G50" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J50" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="N50" s="148"/>
+      <c r="O50" s="149"/>
+      <c r="Q50" s="95">
+        <v>3</v>
+      </c>
+      <c r="R50" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="S50" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="T50" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U50" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="101"/>
+      <c r="B51" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="149"/>
+      <c r="D51" s="103"/>
+      <c r="F51" s="95">
+        <v>4</v>
+      </c>
+      <c r="G51" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="I51" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M51" s="101"/>
+      <c r="N51" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="O51" s="149"/>
+      <c r="Q51" s="95">
+        <v>4</v>
+      </c>
+      <c r="R51" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="S51" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="T51" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U51" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="101"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="103"/>
+      <c r="F52" s="95">
+        <v>5</v>
+      </c>
+      <c r="G52" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J52" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M52" s="101"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q52" s="95">
+        <v>5</v>
+      </c>
+      <c r="R52" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="S52" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="T52" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U52" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="101"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="103"/>
+      <c r="F53" s="95">
+        <v>6</v>
+      </c>
+      <c r="G53" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="I53" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J53" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M53" s="101"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q53" s="95">
+        <v>6</v>
+      </c>
+      <c r="R53" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="S53" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="T53" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U53" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="101"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="108" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="103"/>
+      <c r="F54" s="95">
+        <v>7</v>
+      </c>
+      <c r="G54" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M54" s="101"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q54" s="95">
+        <v>7</v>
+      </c>
+      <c r="R54" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="S54" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="T54" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U54" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="101"/>
+      <c r="B55" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="103"/>
+      <c r="F55" s="95">
+        <v>8</v>
+      </c>
+      <c r="G55" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="I55" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J55" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M55" s="101"/>
+      <c r="N55" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q55" s="95">
+        <v>8</v>
+      </c>
+      <c r="R55" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="S55" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="T55" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U55" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="101"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="108" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="103"/>
+      <c r="F56" s="95">
+        <v>9</v>
+      </c>
+      <c r="G56" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J56" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" s="101"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q56" s="95">
+        <v>9</v>
+      </c>
+      <c r="R56" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="S56" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="T56" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U56" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="84"/>
+      <c r="B57" s="147" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="149"/>
+      <c r="D57" s="103"/>
+      <c r="F57" s="95">
+        <v>10</v>
+      </c>
+      <c r="G57" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="I57" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J57" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" s="84"/>
+      <c r="N57" s="147" t="s">
+        <v>180</v>
+      </c>
+      <c r="O57" s="149"/>
+      <c r="Q57" s="95">
+        <v>10</v>
+      </c>
+      <c r="R57" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="S57" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="T57" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U57" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="105"/>
+      <c r="C58" s="108" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="103"/>
+      <c r="F58" s="95">
+        <v>11</v>
+      </c>
+      <c r="G58" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="I58" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J58" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M58" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="N58" s="105"/>
+      <c r="O58" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q58" s="95">
+        <v>11</v>
+      </c>
+      <c r="R58" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="S58" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="T58" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U58" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="71"/>
+      <c r="B59" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="108" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="103"/>
+      <c r="F59" s="95">
+        <v>12</v>
+      </c>
+      <c r="G59" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J59" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M59" s="71"/>
+      <c r="N59" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="O59" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q59" s="95">
+        <v>12</v>
+      </c>
+      <c r="R59" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="S59" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="T59" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U59" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="72"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="103"/>
+      <c r="F60" s="95">
+        <v>13</v>
+      </c>
+      <c r="G60" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="99">
+        <v>723</v>
+      </c>
+      <c r="I60" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J60" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" s="72"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q60" s="95">
+        <v>13</v>
+      </c>
+      <c r="R60" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="S60" s="99">
+        <v>723</v>
+      </c>
+      <c r="T60" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U60" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="147" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="103"/>
+      <c r="F61" s="95">
+        <v>14</v>
+      </c>
+      <c r="G61" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J61" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M61" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="N61" s="148"/>
+      <c r="O61" s="149"/>
+      <c r="Q61" s="95">
+        <v>14</v>
+      </c>
+      <c r="R61" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="S61" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="T61" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U61" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="101"/>
+      <c r="B62" s="147" t="s">
+        <v>279</v>
+      </c>
+      <c r="C62" s="149"/>
+      <c r="D62" s="103"/>
+      <c r="F62" s="95">
+        <v>15</v>
+      </c>
+      <c r="G62" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="H62" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="I62" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J62" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M62" s="101"/>
+      <c r="N62" s="147" t="s">
+        <v>194</v>
+      </c>
+      <c r="O62" s="149"/>
+      <c r="Q62" s="95">
+        <v>15</v>
+      </c>
+      <c r="R62" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="S62" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="T62" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U62" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="101"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="D63" s="103"/>
+      <c r="F63" s="95">
+        <v>16</v>
+      </c>
+      <c r="G63" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="H63" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="J63" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="M63" s="101"/>
+      <c r="N63" s="105"/>
+      <c r="O63" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q63" s="95">
+        <v>16</v>
+      </c>
+      <c r="R63" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="S63" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="T63" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="U63" s="100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="101"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="110" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" s="118"/>
+      <c r="F64" s="95">
+        <v>17</v>
+      </c>
+      <c r="G64" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="25">
+        <v>824</v>
+      </c>
+      <c r="J64" s="100">
+        <v>27</v>
+      </c>
+      <c r="M64" s="101"/>
+      <c r="N64" s="105"/>
+      <c r="O64" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q64" s="95">
+        <v>17</v>
+      </c>
+      <c r="R64" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="S64" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="T64" s="25">
+        <v>824</v>
+      </c>
+      <c r="U64" s="100">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="101"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="108" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="103"/>
+      <c r="F65" s="95">
+        <v>18</v>
+      </c>
+      <c r="G65" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" s="100">
+        <v>55</v>
+      </c>
+      <c r="M65" s="101"/>
+      <c r="N65" s="106"/>
+      <c r="O65" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q65" s="95">
+        <v>18</v>
+      </c>
+      <c r="R65" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="S65" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="T65" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="U65" s="100">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="101"/>
+      <c r="B66" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="108" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="103"/>
+      <c r="F66" s="95">
+        <v>19</v>
+      </c>
+      <c r="G66" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J66" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M66" s="101"/>
+      <c r="N66" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q66" s="95">
+        <v>19</v>
+      </c>
+      <c r="R66" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="S66" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="T66" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U66" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="101"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="108" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="103"/>
+      <c r="F67" s="95">
+        <v>20</v>
+      </c>
+      <c r="G67" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J67" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M67" s="101"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q67" s="95">
+        <v>20</v>
+      </c>
+      <c r="R67" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="S67" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="T67" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U67" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="84"/>
+      <c r="B68" s="147" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" s="149"/>
+      <c r="D68" s="103"/>
+      <c r="F68" s="95">
+        <v>21</v>
+      </c>
+      <c r="G68" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="I68" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J68" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M68" s="84"/>
+      <c r="N68" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="O68" s="149"/>
+      <c r="Q68" s="95">
+        <v>21</v>
+      </c>
+      <c r="R68" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="S68" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="T68" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U68" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="105"/>
+      <c r="C69" s="108" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" s="103"/>
+      <c r="F69" s="95">
+        <v>22</v>
+      </c>
+      <c r="G69" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="I69" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J69" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M69" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="N69" s="105"/>
+      <c r="O69" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q69" s="95">
+        <v>22</v>
+      </c>
+      <c r="R69" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="S69" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="T69" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U69" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="71"/>
+      <c r="B70" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="103"/>
+      <c r="F70" s="95">
+        <v>23</v>
+      </c>
+      <c r="G70" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="H70" s="99">
+        <v>33</v>
+      </c>
+      <c r="I70" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J70" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M70" s="71"/>
+      <c r="N70" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="O70" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q70" s="95">
+        <v>23</v>
+      </c>
+      <c r="R70" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="S70" s="99">
+        <v>33</v>
+      </c>
+      <c r="T70" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U70" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="72"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="103"/>
+      <c r="F71" s="95">
+        <v>24</v>
+      </c>
+      <c r="G71" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" s="99">
+        <v>697</v>
+      </c>
+      <c r="I71" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="J71" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="M71" s="72"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q71" s="95">
+        <v>24</v>
+      </c>
+      <c r="R71" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="S71" s="99">
+        <v>697</v>
+      </c>
+      <c r="T71" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="U71" s="100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="148"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="103"/>
+      <c r="F72" s="95">
+        <v>25</v>
+      </c>
+      <c r="G72" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="H72" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="I72" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="J72" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="M72" s="147" t="s">
+        <v>225</v>
+      </c>
+      <c r="N72" s="148"/>
+      <c r="O72" s="149"/>
+      <c r="Q72" s="95">
+        <v>25</v>
+      </c>
+      <c r="R72" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="S72" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="T72" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="U72" s="112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CC043D-8AFB-47FF-B625-D0FF3F6B9070}">
+  <dimension ref="A1:L75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="159"/>
+      <c r="C2" s="178"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="159" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="159"/>
+      <c r="I2" s="178"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="178"/>
+      <c r="E3" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="178"/>
+      <c r="K3" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="E4" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="83">
+        <v>1</v>
+      </c>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="180"/>
+      <c r="K4" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="119"/>
+      <c r="E5" s="63">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68">
+        <v>13</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="113"/>
+      <c r="I5" s="119"/>
+      <c r="K5" s="63">
+        <v>1</v>
+      </c>
+      <c r="L5" s="68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="119"/>
+      <c r="E6" s="63">
+        <v>2</v>
+      </c>
+      <c r="F6" s="64">
+        <v>448</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="113"/>
+      <c r="I6" s="119"/>
+      <c r="K6" s="63">
+        <v>2</v>
+      </c>
+      <c r="L6" s="64">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="161"/>
+      <c r="B7" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="E7" s="63">
+        <v>3</v>
+      </c>
+      <c r="F7" s="68">
+        <v>266</v>
+      </c>
+      <c r="G7" s="161"/>
+      <c r="H7" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="119"/>
+      <c r="K7" s="63">
+        <v>3</v>
+      </c>
+      <c r="L7" s="68">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="E8" s="63">
+        <v>4</v>
+      </c>
+      <c r="F8" s="68">
+        <v>182</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="119"/>
+      <c r="K8" s="63">
+        <v>4</v>
+      </c>
+      <c r="L8" s="68">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="E9" s="63">
+        <v>5</v>
+      </c>
+      <c r="F9" s="68">
+        <v>25</v>
+      </c>
+      <c r="G9" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="119"/>
+      <c r="K9" s="63">
+        <v>5</v>
+      </c>
+      <c r="L9" s="68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="121"/>
+      <c r="B10" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="E10" s="63">
+        <v>6</v>
+      </c>
+      <c r="F10" s="68">
+        <v>15</v>
+      </c>
+      <c r="G10" s="121"/>
+      <c r="H10" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="119"/>
+      <c r="K10" s="63">
+        <v>6</v>
+      </c>
+      <c r="L10" s="68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="E11" s="63">
+        <v>7</v>
+      </c>
+      <c r="F11" s="68">
+        <v>312</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="119"/>
+      <c r="K11" s="63">
+        <v>7</v>
+      </c>
+      <c r="L11" s="68">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="162"/>
+      <c r="B12" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="E12" s="63">
+        <v>8</v>
+      </c>
+      <c r="F12" s="68">
+        <v>0</v>
+      </c>
+      <c r="G12" s="162"/>
+      <c r="H12" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="119"/>
+      <c r="K12" s="63">
+        <v>8</v>
+      </c>
+      <c r="L12" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="E13" s="63">
+        <v>9</v>
+      </c>
+      <c r="F13" s="68">
+        <v>10</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="119"/>
+      <c r="K13" s="63">
+        <v>9</v>
+      </c>
+      <c r="L13" s="68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="71"/>
+      <c r="B14" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="E14" s="63">
+        <v>10</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="119"/>
+      <c r="K14" s="63">
+        <v>10</v>
+      </c>
+      <c r="L14" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="E15" s="63">
+        <v>11</v>
+      </c>
+      <c r="F15" s="68">
+        <v>8</v>
+      </c>
+      <c r="G15" s="71"/>
+      <c r="H15" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="119"/>
+      <c r="K15" s="63">
+        <v>11</v>
+      </c>
+      <c r="L15" s="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="E16" s="63">
+        <v>12</v>
+      </c>
+      <c r="F16" s="68">
+        <v>118</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="119"/>
+      <c r="K16" s="63">
+        <v>12</v>
+      </c>
+      <c r="L16" s="68">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="119"/>
+      <c r="E17" s="63">
+        <v>13</v>
+      </c>
+      <c r="F17" s="68">
+        <v>69</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="113"/>
+      <c r="I17" s="119"/>
+      <c r="K17" s="63">
+        <v>13</v>
+      </c>
+      <c r="L17" s="68">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="113"/>
+      <c r="C18" s="119"/>
+      <c r="E18" s="63">
+        <v>14</v>
+      </c>
+      <c r="F18" s="64">
+        <v>104</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="113"/>
+      <c r="I18" s="119"/>
+      <c r="K18" s="63">
+        <v>14</v>
+      </c>
+      <c r="L18" s="64">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="122"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="63">
+        <v>15</v>
+      </c>
+      <c r="F19" s="68">
+        <v>85</v>
+      </c>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="63">
+        <v>15</v>
+      </c>
+      <c r="L19" s="68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="63">
+        <v>16</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="63">
+        <v>16</v>
+      </c>
+      <c r="L20" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="63">
+        <v>17</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0</v>
+      </c>
+      <c r="G21" s="73"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="63">
+        <v>17</v>
+      </c>
+      <c r="L21" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="126"/>
+      <c r="C22" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="63">
+        <v>18</v>
+      </c>
+      <c r="F22" s="68">
+        <v>0</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="126"/>
+      <c r="I22" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="63">
+        <v>18</v>
+      </c>
+      <c r="L22" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="63">
+        <v>19</v>
+      </c>
+      <c r="F23" s="68">
+        <v>2</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="127"/>
+      <c r="I23" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="63">
+        <v>19</v>
+      </c>
+      <c r="L23" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="77"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="63">
+        <v>20</v>
+      </c>
+      <c r="F24" s="68">
+        <v>17</v>
+      </c>
+      <c r="G24" s="77"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="63">
+        <v>20</v>
+      </c>
+      <c r="L24" s="68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="113"/>
+      <c r="C25" s="119"/>
+      <c r="E25" s="63">
+        <v>21</v>
+      </c>
+      <c r="F25" s="64">
+        <v>552</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="113"/>
+      <c r="I25" s="119"/>
+      <c r="K25" s="63">
+        <v>21</v>
+      </c>
+      <c r="L25" s="64">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="113"/>
+      <c r="C26" s="119"/>
+      <c r="E26" s="63">
+        <v>22</v>
+      </c>
+      <c r="F26" s="64">
+        <v>195</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="113"/>
+      <c r="I26" s="119"/>
+      <c r="K26" s="63">
+        <v>22</v>
+      </c>
+      <c r="L26" s="64">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="181"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="63">
+        <v>23</v>
+      </c>
+      <c r="F27" s="68">
+        <v>114</v>
+      </c>
+      <c r="G27" s="181"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="63">
+        <v>23</v>
+      </c>
+      <c r="L27" s="68">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="82"/>
+      <c r="C28" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="63">
+        <v>24</v>
+      </c>
+      <c r="F28" s="68">
+        <v>55</v>
+      </c>
+      <c r="G28" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="82"/>
+      <c r="I28" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="63">
+        <v>24</v>
+      </c>
+      <c r="L28" s="68">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="119"/>
+      <c r="E29" s="63">
+        <v>25</v>
+      </c>
+      <c r="F29" s="64">
+        <v>39</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="113"/>
+      <c r="I29" s="119"/>
+      <c r="K29" s="63">
+        <v>25</v>
+      </c>
+      <c r="L29" s="64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="181"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="63">
+        <v>26</v>
+      </c>
+      <c r="F30" s="68">
+        <v>26</v>
+      </c>
+      <c r="G30" s="181"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="63">
+        <v>26</v>
+      </c>
+      <c r="L30" s="68">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="82"/>
+      <c r="C31" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="63">
+        <v>27</v>
+      </c>
+      <c r="F31" s="68">
+        <v>13</v>
+      </c>
+      <c r="G31" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="82"/>
+      <c r="I31" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="63">
+        <v>27</v>
+      </c>
+      <c r="L31" s="68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="113"/>
+      <c r="C32" s="119"/>
+      <c r="E32" s="63">
+        <v>28</v>
+      </c>
+      <c r="F32" s="64">
+        <v>47</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="113"/>
+      <c r="I32" s="119"/>
+      <c r="K32" s="63">
+        <v>28</v>
+      </c>
+      <c r="L32" s="64">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="63">
+        <v>29</v>
+      </c>
+      <c r="F33" s="68">
+        <v>40</v>
+      </c>
+      <c r="G33" s="181"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="63">
+        <v>29</v>
+      </c>
+      <c r="L33" s="68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="82"/>
+      <c r="C34" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="63">
+        <v>30</v>
+      </c>
+      <c r="F34" s="163">
+        <v>7</v>
+      </c>
+      <c r="G34" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="82"/>
+      <c r="I34" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="63">
+        <v>30</v>
+      </c>
+      <c r="L34" s="163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="183" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="183"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="129"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="165">
+        <v>1</v>
+      </c>
+      <c r="G37" s="184"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="84"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="119"/>
+      <c r="E38" s="167">
+        <v>1</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="84"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" s="119"/>
+      <c r="K38" s="167">
+        <v>1</v>
+      </c>
+      <c r="L38" s="68" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="166"/>
+      <c r="B39" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="167">
+        <v>2</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="166"/>
+      <c r="H39" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="119"/>
+      <c r="K39" s="167">
+        <v>2</v>
+      </c>
+      <c r="L39" s="68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="167">
+        <v>3</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="185" t="s">
+        <v>134</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="K40" s="167">
+        <v>3</v>
+      </c>
+      <c r="L40" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="167">
+        <v>4</v>
+      </c>
+      <c r="F41" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="167">
+        <v>4</v>
+      </c>
+      <c r="L41" s="68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="71"/>
+      <c r="B42" s="131" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="119"/>
+      <c r="E42" s="167">
+        <v>5</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="H42" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="119"/>
+      <c r="K42" s="167">
+        <v>5</v>
+      </c>
+      <c r="L42" s="68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="72"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="119"/>
+      <c r="E43" s="167">
+        <v>6</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>297</v>
+      </c>
+      <c r="G43" s="72"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="119"/>
+      <c r="K43" s="167">
+        <v>6</v>
+      </c>
+      <c r="L43" s="68" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="134"/>
+      <c r="C44" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="119"/>
+      <c r="E44" s="167">
+        <v>7</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" s="187" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="134"/>
+      <c r="I44" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="119"/>
+      <c r="K44" s="167">
+        <v>7</v>
+      </c>
+      <c r="L44" s="64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="135"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="119"/>
+      <c r="E45" s="167">
+        <v>8</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="G45" s="188"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="119"/>
+      <c r="K45" s="167">
+        <v>8</v>
+      </c>
+      <c r="L45" s="64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="138"/>
+      <c r="C46" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="119"/>
+      <c r="E46" s="167">
+        <v>9</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="G46" s="189" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="138"/>
+      <c r="I46" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="119"/>
+      <c r="K46" s="167">
+        <v>9</v>
+      </c>
+      <c r="L46" s="68" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="167">
+        <v>10</v>
+      </c>
+      <c r="F47" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="190" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="167">
+        <v>10</v>
+      </c>
+      <c r="L47" s="168" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="169" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="169"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="192" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="195"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="171"/>
+      <c r="K48" s="171"/>
+      <c r="L48" s="171"/>
+    </row>
+    <row r="49" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="80"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F49" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" s="183" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="194"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="L49" s="82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="170"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="165">
+        <v>1</v>
+      </c>
+      <c r="F50" s="165">
+        <v>2</v>
+      </c>
+      <c r="G50" s="77"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="K50" s="165">
+        <v>1</v>
+      </c>
+      <c r="L50" s="165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="139" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="140"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="167">
+        <v>1</v>
+      </c>
+      <c r="E51" s="82">
+        <v>492</v>
+      </c>
+      <c r="F51" s="68">
+        <v>136</v>
+      </c>
+      <c r="G51" s="190" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="140"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="167">
+        <v>1</v>
+      </c>
+      <c r="K51" s="82">
+        <v>492</v>
+      </c>
+      <c r="L51" s="68">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" s="193"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="167">
+        <v>2</v>
+      </c>
+      <c r="E52" s="82">
+        <v>413</v>
+      </c>
+      <c r="F52" s="68">
+        <v>100</v>
+      </c>
+      <c r="G52" s="189" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="193"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="167">
+        <v>2</v>
+      </c>
+      <c r="K52" s="82">
+        <v>413</v>
+      </c>
+      <c r="L52" s="68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="139" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" s="140"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="167">
+        <v>3</v>
+      </c>
+      <c r="E53" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="190" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53" s="140"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="167">
+        <v>3</v>
+      </c>
+      <c r="K53" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="L53" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="84"/>
+      <c r="B54" s="139" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="141"/>
+      <c r="D54" s="167">
+        <v>4</v>
+      </c>
+      <c r="E54" s="173" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="84"/>
+      <c r="H54" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="141"/>
+      <c r="J54" s="167">
+        <v>4</v>
+      </c>
+      <c r="K54" s="173" t="s">
+        <v>304</v>
+      </c>
+      <c r="L54" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="84"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="167">
+        <v>5</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="F55" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="84"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="J55" s="167">
+        <v>5</v>
+      </c>
+      <c r="K55" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="L55" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="84"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="167">
+        <v>6</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="84"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="167">
+        <v>6</v>
+      </c>
+      <c r="K56" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="L56" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="84"/>
+      <c r="B57" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="167">
+        <v>7</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="F57" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="84"/>
+      <c r="H57" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" s="167">
+        <v>7</v>
+      </c>
+      <c r="K57" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="L57" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="84"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="167">
+        <v>8</v>
+      </c>
+      <c r="E58" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="84"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="J58" s="167">
+        <v>8</v>
+      </c>
+      <c r="K58" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="L58" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="172"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59" s="167">
+        <v>9</v>
+      </c>
+      <c r="E59" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="172"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" s="167">
+        <v>9</v>
+      </c>
+      <c r="K59" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="L59" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="139" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="141"/>
+      <c r="D60" s="167">
+        <v>10</v>
+      </c>
+      <c r="E60" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" s="141"/>
+      <c r="J60" s="167">
+        <v>10</v>
+      </c>
+      <c r="K60" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="L60" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="71"/>
+      <c r="B61" s="175"/>
+      <c r="C61" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="D61" s="167">
+        <v>11</v>
+      </c>
+      <c r="E61" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="F61" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" s="71"/>
+      <c r="H61" s="175"/>
+      <c r="I61" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="J61" s="167">
+        <v>11</v>
+      </c>
+      <c r="K61" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="L61" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="71"/>
+      <c r="B62" s="174" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="167">
+        <v>12</v>
+      </c>
+      <c r="E62" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="F62" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="71"/>
+      <c r="H62" s="174" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="J62" s="167">
+        <v>12</v>
+      </c>
+      <c r="K62" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="L62" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="72"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="167">
+        <v>13</v>
+      </c>
+      <c r="E63" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="72"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="167">
+        <v>13</v>
+      </c>
+      <c r="K63" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="L63" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="139" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="140"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="167">
+        <v>14</v>
+      </c>
+      <c r="E64" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G64" s="190" t="s">
+        <v>332</v>
+      </c>
+      <c r="H64" s="140"/>
+      <c r="I64" s="141"/>
+      <c r="J64" s="167">
+        <v>14</v>
+      </c>
+      <c r="K64" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="L64" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="84"/>
+      <c r="B65" s="139" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="141"/>
+      <c r="D65" s="167">
+        <v>15</v>
+      </c>
+      <c r="E65" s="173" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="84"/>
+      <c r="H65" s="139" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" s="141"/>
+      <c r="J65" s="167">
+        <v>15</v>
+      </c>
+      <c r="K65" s="173" t="s">
+        <v>316</v>
+      </c>
+      <c r="L65" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="84"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="167">
+        <v>16</v>
+      </c>
+      <c r="E66" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="F66" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="G66" s="84"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="J66" s="167">
+        <v>16</v>
+      </c>
+      <c r="K66" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="L66" s="68" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="84"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="176" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="167">
+        <v>17</v>
+      </c>
+      <c r="E67" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="F67" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" s="84"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="176" t="s">
+        <v>202</v>
+      </c>
+      <c r="J67" s="167">
+        <v>17</v>
+      </c>
+      <c r="K67" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="L67" s="68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="84"/>
+      <c r="B68" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="167">
+        <v>18</v>
+      </c>
+      <c r="E68" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" s="84"/>
+      <c r="H68" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68" s="167">
+        <v>18</v>
+      </c>
+      <c r="K68" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="L68" s="68" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="84"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="167">
+        <v>19</v>
+      </c>
+      <c r="E69" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="84"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="J69" s="167">
+        <v>19</v>
+      </c>
+      <c r="K69" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="L69" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="172"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="167">
+        <v>20</v>
+      </c>
+      <c r="E70" s="82" t="s">
+        <v>324</v>
+      </c>
+      <c r="F70" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" s="172"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="J70" s="167">
+        <v>20</v>
+      </c>
+      <c r="K70" s="82" t="s">
+        <v>324</v>
+      </c>
+      <c r="L70" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" s="139" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="141"/>
+      <c r="D71" s="167">
+        <v>21</v>
+      </c>
+      <c r="E71" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G71" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" s="139" t="s">
+        <v>215</v>
+      </c>
+      <c r="I71" s="141"/>
+      <c r="J71" s="167">
+        <v>21</v>
+      </c>
+      <c r="K71" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="L71" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="71"/>
+      <c r="B72" s="175"/>
+      <c r="C72" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="167">
+        <v>22</v>
+      </c>
+      <c r="E72" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="71"/>
+      <c r="H72" s="175"/>
+      <c r="I72" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="J72" s="167">
+        <v>22</v>
+      </c>
+      <c r="K72" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="L72" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="71"/>
+      <c r="B73" s="174" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="167">
+        <v>23</v>
+      </c>
+      <c r="E73" s="82">
+        <v>500</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="71"/>
+      <c r="H73" s="174" t="s">
+        <v>134</v>
+      </c>
+      <c r="I73" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="167">
+        <v>23</v>
+      </c>
+      <c r="K73" s="82">
+        <v>500</v>
+      </c>
+      <c r="L73" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="72"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74" s="167">
+        <v>24</v>
+      </c>
+      <c r="E74" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" s="72"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="J74" s="167">
+        <v>24</v>
+      </c>
+      <c r="K74" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="L74" s="68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="139" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" s="140"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="167">
+        <v>25</v>
+      </c>
+      <c r="E75" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="F75" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" s="190" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" s="140"/>
+      <c r="I75" s="141"/>
+      <c r="J75" s="167">
+        <v>25</v>
+      </c>
+      <c r="K75" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="L75" s="163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>